--- a/Excel/BookDetails.xlsx
+++ b/Excel/BookDetails.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3610AB-986D-494D-BDEF-705FCAFF3B8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="0" yWindow="1770" windowWidth="38400" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookDetails" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +65,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我相信童心，切不可失去。\n大家不是去童心，则家庭、社\n会，一定温暖、和平而幸\n福。</t>
+    <t>柚子关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我向来憧憬儿童生活，只有儿童天真烂漫，人格完整，这才是真正的“人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们是身心全部公开的真人，小小的失意，也要哭的嘴唇翻白，这是何等可佩服的真率、自然与深情。大人们的口号“生活的艺术化”“艺术化的生活”在你们面前真是出丑了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护生者，护心也。去除残忍心，长养慈悲心，养护动物，然后拿以此心来待人处世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近来我的心为四事所占据了：天上的神明与星辰，人间的艺术与儿童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风筝关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓鸟关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放鸟关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人走茶凉关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 丰子恺《护生画集》1949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 丰子恺《给我的孩子们》1926</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡动物，头是最主要部分。鹅的头在比例上比骆驼更高，与麒麟相似，正是高超的性格的表示。而在它的叫声、步态、吃相中，更表示出一种傲慢之气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 丰子恺《白鹅》1937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我相信童心，切不可失去。大家不失童心，则家庭、社会，一定温暖、和平而幸福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的眼应该从恶岁转入永劫，我的笔也不妨从人生转向自然，寻求更深刻的画材。我忽然注意到破墙砖缝里钻出的一根小草，作了一副《生机》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 丰子恺《我的漫画》1947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教训子女，宜在幼时。长养慈悲心，勿伤物命。充此一念，可为仁圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来我的笔又改动了方向，从正面描写成人社会的景象了。我住在故乡石门湾，看见村民生活，就作画….这些画中景象，多少美观！多少幸福！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然是疏朗的几笔墨痕，画着一道卷上的芦帘，一个放在廊边的小桌，桌上是一把壶，几个杯，天上是一钩新月，我的情思却被他带到一个诗的仙境，我的心上感到一种说不出的美感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 郑振铎《子恺漫画》序1925</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,6 +328,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -270,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,30 +572,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="142.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -482,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -494,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,108 +641,136 @@
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
